--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Fulhata Bazar 0.00 U-S  End Termination 3.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Fulhata Bazar 0.00 U-S  End Termination 3.xlsx
@@ -5952,8 +5952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7021,8 +7021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M912"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J190" sqref="J190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
